--- a/src/test/resources/TestDriver/IFRS9_Stage3/ActivityData/ActivityData_D3.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/ActivityData/ActivityData_D3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\IFRS9_Stage3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\ActivityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AB94C7-5D68-469B-85AC-14658BAB298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56319360-4091-484F-8DFD-50041AD1AABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TransactionActivity" sheetId="4" r:id="rId1"/>
@@ -164,9 +164,6 @@
     <t>Attributeid</t>
   </si>
   <si>
-    <t>ImpairmentType</t>
-  </si>
-  <si>
     <t>StartDate</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>LN-1002</t>
+  </si>
+  <si>
+    <t>MeasurementType</t>
   </si>
 </sst>
 </file>
@@ -195,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +225,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -281,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -297,6 +304,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +572,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -606,10 +614,10 @@
         <v>45731</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5">
         <v>-970</v>
@@ -626,10 +634,10 @@
         <v>45731</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="5">
         <v>-60</v>
@@ -646,10 +654,10 @@
         <v>45731</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5">
         <v>-820</v>
@@ -666,10 +674,10 @@
         <v>45731</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="5">
         <v>-125</v>
@@ -688,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CC3760-5288-49D5-A10C-D1E445F54D34}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,14 +724,14 @@
       <c r="D1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -734,13 +742,13 @@
         <v>45747</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="11">
         <v>45747</v>
@@ -757,13 +765,13 @@
         <v>45747</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="11">
         <v>45777</v>
@@ -780,13 +788,13 @@
         <v>45747</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="11">
         <v>45808</v>
@@ -803,13 +811,13 @@
         <v>45747</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="11">
         <v>45838</v>
@@ -826,13 +834,13 @@
         <v>45747</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="11">
         <v>45869</v>
@@ -849,13 +857,13 @@
         <v>45747</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="11">
         <v>45900</v>
@@ -872,13 +880,13 @@
         <v>45747</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="11">
         <v>45930</v>
@@ -895,13 +903,13 @@
         <v>45747</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="11">
         <v>45961</v>
@@ -918,13 +926,13 @@
         <v>45747</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="11">
         <v>45991</v>
@@ -941,13 +949,13 @@
         <v>45747</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="11">
         <v>46022</v>
@@ -964,13 +972,13 @@
         <v>45747</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="11">
         <v>46053</v>
@@ -987,13 +995,13 @@
         <v>45747</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="11">
         <v>45747</v>
@@ -1010,13 +1018,13 @@
         <v>45747</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="11">
         <v>45777</v>
@@ -1033,13 +1041,13 @@
         <v>45747</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="11">
         <v>45808</v>
@@ -1056,13 +1064,13 @@
         <v>45747</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="11">
         <v>45838</v>
@@ -1079,13 +1087,13 @@
         <v>45747</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="11">
         <v>45869</v>
@@ -1102,13 +1110,13 @@
         <v>45747</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="11">
         <v>45900</v>
@@ -1125,13 +1133,13 @@
         <v>45747</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="11">
         <v>45930</v>
@@ -1148,13 +1156,13 @@
         <v>45747</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="11">
         <v>45961</v>
@@ -1171,13 +1179,13 @@
         <v>45747</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="11">
         <v>45991</v>
@@ -1194,13 +1202,13 @@
         <v>45747</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="11">
         <v>46022</v>
@@ -1217,13 +1225,13 @@
         <v>45747</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="11">
         <v>46053</v>
